--- a/合同/供销合同/园林机械厂-钢材供销合同.xlsx
+++ b/合同/供销合同/园林机械厂-钢材供销合同.xlsx
@@ -213,14 +213,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[DBNum2][$RMB]General;[Red][DBNum2][$RMB]General"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="[DBNum2][$RMB]General;[Red][DBNum2][$RMB]General"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -269,28 +269,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -311,17 +289,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,32 +320,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,8 +344,47 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,13 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +433,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -451,13 +565,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,139 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,11 +730,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,17 +763,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,145 +790,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -936,76 +936,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1671,7 +1671,7 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/合同/供销合同/园林机械厂-钢材供销合同.xlsx
+++ b/合同/供销合同/园林机械厂-钢材供销合同.xlsx
@@ -172,7 +172,7 @@
     <t>单位地址：宣城市经济开发区宣酒大道（铁山路）89号</t>
   </si>
   <si>
-    <t>电    话：</t>
+    <t>电    话：139 0563 4952</t>
   </si>
   <si>
     <t>电    话：137 0563 7192</t>
@@ -214,9 +214,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
@@ -275,8 +275,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,15 +291,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,9 +353,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,9 +374,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,17 +389,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,35 +411,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -418,6 +418,180 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -427,181 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,6 +685,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -715,17 +724,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,18 +750,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,17 +778,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -793,7 +793,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,134 +805,134 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1003,6 +1003,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1670,8 +1676,8 @@
   <sheetPr/>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2945,11 +2951,11 @@
       <c r="H64" s="23"/>
     </row>
     <row r="65" ht="15" customHeight="1" spans="1:8">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="23" t="s">
         <v>53</v>
       </c>
@@ -3029,16 +3035,16 @@
       <c r="H70" s="23"/>
     </row>
     <row r="71" ht="22" customHeight="1" spans="1:8">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="54">
